--- a/03_DB・機能設計書/04_機能一覧.xlsx
+++ b/03_DB・機能設計書/04_機能一覧.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mori0\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saitougai/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE6C0B3-26F5-434E-BE41-27601FAC47C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBF4587-1A89-B047-A66E-8A601986DCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{7A665DD0-1DF4-4483-AE5E-BE5AE45AA4F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{7A665DD0-1DF4-4483-AE5E-BE5AE45AA4F6}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="機能一覧" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$H$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -95,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -408,6 +406,209 @@
     <rPh sb="6" eb="10">
       <t>キノウイチラン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイスコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム本体</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン判定</t>
+    <rPh sb="0" eb="2">
+      <t>ログインハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報の取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報の追加</t>
+    <rPh sb="0" eb="2">
+      <t>ユーザージョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報のセッション登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報のセッション削除</t>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報のセッション取得</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト画面　
+トップ画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="0" eb="1">
+      <t>ログインガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面
+ログイン画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイスコア登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイスコア判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハイスコアハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイスコア取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム部分表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のブロック表示</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果音再生</t>
+    <rPh sb="0" eb="5">
+      <t>コウカオンサイス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームメイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>齋藤凱</t>
+    <rPh sb="0" eb="3">
+      <t>サイトウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout,html</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -754,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,6 +1065,15 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="13" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,6 +1081,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -938,14 +1157,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -956,9 +1175,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -989,10 +1205,16 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,20 +1538,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3595A5-50CC-42FB-9624-A743950D1344}">
   <dimension ref="A1:FL61"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="H48" sqref="H48:S48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.09765625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="4.09765625" style="36" customWidth="1"/>
-    <col min="6" max="24" width="4.09765625" style="2" customWidth="1"/>
+    <col min="1" max="3" width="4.1640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="4.1640625" style="36" customWidth="1"/>
+    <col min="6" max="24" width="4.1640625" style="2" customWidth="1"/>
     <col min="25" max="28" width="4" style="2" customWidth="1"/>
     <col min="29" max="16384" width="13" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:168" ht="12">
+    <row r="1" spans="1:168" ht="14">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1542,10 +1764,10 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="53"/>
+      <c r="R3" s="59"/>
       <c r="S3" s="12" t="s">
         <v>1</v>
       </c>
@@ -1646,14 +1868,14 @@
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
@@ -1671,62 +1893,62 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="64"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="70"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="52" t="s">
+      <c r="Q8" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="53"/>
-      <c r="S8" s="52" t="s">
+      <c r="R8" s="59"/>
+      <c r="S8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="53"/>
-      <c r="U8" s="52" t="s">
+      <c r="T8" s="59"/>
+      <c r="U8" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="53"/>
+      <c r="V8" s="59"/>
       <c r="W8" s="15"/>
       <c r="X8" s="24"/>
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="67"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="73"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="69"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="75"/>
       <c r="W9" s="25"/>
       <c r="X9" s="24"/>
       <c r="Y9" s="8"/>
@@ -1748,12 +1970,12 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="71"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="77"/>
       <c r="W10" s="25"/>
       <c r="X10" s="24"/>
       <c r="Y10" s="8"/>
@@ -1775,12 +1997,12 @@
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="73"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="25"/>
       <c r="X11" s="24"/>
       <c r="Y11" s="26"/>
@@ -1865,81 +2087,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
       <c r="W15" s="27"/>
       <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
       <c r="W16" s="27"/>
       <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
       <c r="W17" s="27"/>
       <c r="X17" s="16"/>
     </row>
@@ -2493,505 +2715,505 @@
     </row>
     <row r="39" spans="1:24" ht="15" customHeight="1">
       <c r="A39" s="11"/>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="49" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="49" t="s">
+      <c r="F39" s="53"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="49" t="s">
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="U39" s="50"/>
-      <c r="V39" s="51"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="54"/>
       <c r="W39" s="29"/>
       <c r="X39" s="16"/>
     </row>
     <row r="40" spans="1:24" ht="15" customHeight="1">
       <c r="A40" s="11"/>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="51"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="54"/>
       <c r="W40" s="29"/>
       <c r="X40" s="16"/>
     </row>
     <row r="41" spans="1:24" ht="15" customHeight="1">
       <c r="A41" s="11"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="54"/>
       <c r="W41" s="29"/>
       <c r="X41" s="16"/>
     </row>
     <row r="42" spans="1:24" ht="15" customHeight="1">
       <c r="A42" s="11"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="54"/>
       <c r="W42" s="29"/>
       <c r="X42" s="16"/>
     </row>
     <row r="43" spans="1:24" ht="15" customHeight="1">
       <c r="A43" s="11"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="54"/>
       <c r="W43" s="29"/>
       <c r="X43" s="16"/>
     </row>
     <row r="44" spans="1:24" ht="15" customHeight="1">
       <c r="A44" s="11"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="54"/>
       <c r="W44" s="29"/>
       <c r="X44" s="16"/>
     </row>
     <row r="45" spans="1:24" ht="15" customHeight="1">
       <c r="A45" s="11"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="54"/>
       <c r="W45" s="29"/>
       <c r="X45" s="16"/>
     </row>
     <row r="46" spans="1:24" ht="15" customHeight="1">
       <c r="A46" s="11"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="51"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="54"/>
       <c r="W46" s="29"/>
       <c r="X46" s="16"/>
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1">
       <c r="A47" s="11"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="50"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="54"/>
       <c r="W47" s="29"/>
       <c r="X47" s="16"/>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1">
       <c r="A48" s="11"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="49"/>
-      <c r="U48" s="50"/>
-      <c r="V48" s="51"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="54"/>
       <c r="W48" s="29"/>
       <c r="X48" s="16"/>
     </row>
     <row r="49" spans="1:24" ht="15" customHeight="1">
       <c r="A49" s="11"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="49"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="54"/>
       <c r="W49" s="29"/>
       <c r="X49" s="16"/>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1">
       <c r="A50" s="11"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="51"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="50"/>
-      <c r="V50" s="51"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="54"/>
       <c r="W50" s="29"/>
       <c r="X50" s="16"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1">
       <c r="A51" s="11"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="50"/>
-      <c r="Q51" s="50"/>
-      <c r="R51" s="50"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="49"/>
-      <c r="U51" s="50"/>
-      <c r="V51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="54"/>
       <c r="W51" s="29"/>
       <c r="X51" s="16"/>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1">
       <c r="A52" s="11"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="51"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="54"/>
       <c r="W52" s="29"/>
       <c r="X52" s="16"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1">
       <c r="A53" s="11"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="50"/>
-      <c r="S53" s="51"/>
-      <c r="T53" s="49"/>
-      <c r="U53" s="50"/>
-      <c r="V53" s="51"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="53"/>
+      <c r="V53" s="54"/>
       <c r="W53" s="29"/>
       <c r="X53" s="16"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1">
       <c r="A54" s="11"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="50"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="51"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="54"/>
       <c r="W54" s="29"/>
       <c r="X54" s="16"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1">
       <c r="A55" s="11"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="51"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="51"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="53"/>
+      <c r="V55" s="54"/>
       <c r="W55" s="29"/>
       <c r="X55" s="16"/>
     </row>
     <row r="56" spans="1:24" ht="15" customHeight="1">
       <c r="A56" s="11"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="51"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="50"/>
-      <c r="V56" s="51"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="53"/>
+      <c r="V56" s="54"/>
       <c r="W56" s="29"/>
       <c r="X56" s="16"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1">
       <c r="A57" s="11"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="50"/>
-      <c r="Q57" s="50"/>
-      <c r="R57" s="50"/>
-      <c r="S57" s="51"/>
-      <c r="T57" s="49"/>
-      <c r="U57" s="50"/>
-      <c r="V57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="53"/>
+      <c r="V57" s="54"/>
       <c r="W57" s="29"/>
       <c r="X57" s="16"/>
     </row>
@@ -3101,78 +3323,6 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:S57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:S54"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:S55"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:S41"/>
-    <mergeCell ref="T41:V41"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="H39:S39"/>
@@ -3188,6 +3338,78 @@
     <mergeCell ref="S9:T11"/>
     <mergeCell ref="U9:V11"/>
     <mergeCell ref="B15:V17"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:S57"/>
+    <mergeCell ref="T57:V57"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3199,28 +3421,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BF064-3389-41A0-8DD3-77961AA7640C}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="23.09765625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="41" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" style="41"/>
+    <col min="1" max="1" width="17.83203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="41"/>
     <col min="5" max="5" width="9.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.59765625" style="41" customWidth="1"/>
-    <col min="7" max="8" width="31.09765625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="41" customWidth="1"/>
+    <col min="7" max="8" width="31.1640625" style="41" customWidth="1"/>
     <col min="9" max="9" width="41" style="41" customWidth="1"/>
-    <col min="10" max="10" width="25.3984375" style="41" customWidth="1"/>
-    <col min="11" max="12" width="14.3984375" style="41" customWidth="1"/>
-    <col min="13" max="16384" width="8.8984375" style="41"/>
+    <col min="10" max="10" width="25.33203125" style="41" customWidth="1"/>
+    <col min="11" max="12" width="14.33203125" style="41" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.8">
+    <row r="1" spans="1:12" ht="20">
       <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
@@ -3229,13 +3451,13 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="84" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -3244,50 +3466,54 @@
       <c r="C2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="42"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="42" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A3" s="79"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="43"/>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="42"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="100">
+        <v>45226</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A4" s="80"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="89"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:12" ht="20.25" customHeight="1">
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="89"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1">
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="91"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1"/>
@@ -3323,10 +3549,10 @@
       <c r="J9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="83"/>
+      <c r="L9" s="88"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" customHeight="1">
       <c r="A10" s="37"/>
@@ -3339,44 +3565,76 @@
       <c r="H10" s="47"/>
       <c r="I10" s="45"/>
       <c r="J10" s="45"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
-    </row>
-    <row r="11" spans="1:12" ht="71.25" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
+    </row>
+    <row r="11" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A11" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
-    </row>
-    <row r="12" spans="1:12" ht="56.25" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="45"/>
+      <c r="J11" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="50"/>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:12" ht="71.25" customHeight="1">
+      <c r="A12" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="48"/>
+      <c r="E12" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>47</v>
+      </c>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
       <c r="I12" s="45"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-    </row>
-    <row r="13" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="45"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
+    </row>
+    <row r="13" spans="1:12" ht="56.25" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>45</v>
+      </c>
       <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="48"/>
+      <c r="E13" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>51</v>
+      </c>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
       <c r="I13" s="45"/>
@@ -3384,41 +3642,73 @@
       <c r="K13" s="81"/>
       <c r="L13" s="81"/>
     </row>
-    <row r="14" spans="1:12" ht="61.5" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="45"/>
+    <row r="14" spans="1:12" ht="56.25" customHeight="1">
+      <c r="A14" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="48"/>
+      <c r="E14" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>54</v>
+      </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-    </row>
-    <row r="15" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="45"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="1:12" ht="56.25" customHeight="1">
+      <c r="A15" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>49</v>
+      </c>
       <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="48"/>
+      <c r="E15" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>53</v>
+      </c>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-    </row>
-    <row r="16" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="J15" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+    </row>
+    <row r="16" spans="1:12" ht="53" customHeight="1">
+      <c r="A16" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="48"/>
+      <c r="E16" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
       <c r="I16" s="45"/>
@@ -3426,13 +3716,23 @@
       <c r="K16" s="81"/>
       <c r="L16" s="81"/>
     </row>
-    <row r="17" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+    <row r="17" spans="1:12" ht="61.5" customHeight="1">
+      <c r="A17" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="48"/>
+      <c r="E17" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>52</v>
+      </c>
       <c r="G17" s="48"/>
       <c r="H17" s="48"/>
       <c r="I17" s="45"/>
@@ -3440,55 +3740,95 @@
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
     </row>
-    <row r="18" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+    <row r="18" spans="1:12" ht="61.5" customHeight="1">
+      <c r="A18" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="48"/>
+      <c r="E18" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>52</v>
+      </c>
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
       <c r="I18" s="45"/>
       <c r="J18" s="45"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-    </row>
-    <row r="19" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+    </row>
+    <row r="19" spans="1:12" ht="61.5" customHeight="1">
+      <c r="A19" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="48"/>
+      <c r="E19" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>52</v>
+      </c>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-    </row>
-    <row r="20" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+    </row>
+    <row r="20" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A20" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="48"/>
+      <c r="E20" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>52</v>
+      </c>
       <c r="G20" s="48"/>
       <c r="H20" s="48"/>
       <c r="I20" s="45"/>
       <c r="J20" s="45"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-    </row>
-    <row r="21" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
+    </row>
+    <row r="21" spans="1:12" ht="45" customHeight="1">
+      <c r="A21" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>61</v>
+      </c>
       <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="48"/>
+      <c r="E21" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>52</v>
+      </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
       <c r="I21" s="45"/>
@@ -3496,43 +3836,73 @@
       <c r="K21" s="81"/>
       <c r="L21" s="81"/>
     </row>
-    <row r="22" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+    <row r="22" spans="1:12" ht="41" customHeight="1">
+      <c r="A22" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>63</v>
+      </c>
       <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="E22" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="45"/>
       <c r="J22" s="45"/>
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+    <row r="23" spans="1:12" ht="46" customHeight="1">
+      <c r="A23" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>62</v>
+      </c>
       <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="E23" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
     </row>
-    <row r="24" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
+    <row r="24" spans="1:12" ht="45" customHeight="1">
+      <c r="A24" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
+      <c r="E24" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
       <c r="K24" s="81"/>
@@ -3544,40 +3914,110 @@
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
       <c r="K25" s="81"/>
       <c r="L25" s="81"/>
     </row>
+    <row r="26" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+    </row>
+    <row r="27" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+    </row>
+    <row r="28" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+    </row>
+    <row r="29" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+    </row>
+    <row r="30" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -3594,15 +4034,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D7C9809096204D448E7E27AA876564EA" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d18fc409809536b8b7818c3506e9437f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="957a1b1a-32e6-4e86-807e-1894b93e11c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2abd3c77384fed28cbfa08c3c7921415" ns2:_="">
     <xsd:import namespace="957a1b1a-32e6-4e86-807e-1894b93e11c2"/>
@@ -3734,6 +4165,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5F99839-1DFD-40A1-90A2-B7FC61C519DB}">
   <ds:schemaRefs>
@@ -3744,14 +4184,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39D0CED9-BB4D-4C29-B13C-ECF7223DF5AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F753846D-8438-47EB-8661-657CE90EFBDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3767,4 +4199,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39D0CED9-BB4D-4C29-B13C-ECF7223DF5AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>